--- a/TEST_CASES_TRANSFERMATE.xlsx
+++ b/TEST_CASES_TRANSFERMATE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ANI\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula_Girdea\IdeaProjects\Newwwwwwwwwwww\Transfermate_Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33DF7E8D-916A-42B6-8313-F34D2D713EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745B81F9-63FE-4C1D-9717-A1EA70ADF8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{548B10B5-A2EA-4F3D-9FB2-9432C4A61112}"/>
   </bookViews>
@@ -1490,7 +1490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1582,9 +1582,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1899,7 +1896,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1909,8 +1906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BCBA66-F58A-4F81-9C40-C9A1AE19ABAF}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="E17" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2203,7 +2200,7 @@
       <c r="G11" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="35" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2227,7 +2224,7 @@
       <c r="G12" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="35" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2250,10 +2247,10 @@
       <c r="F13" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="35" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2276,7 +2273,7 @@
       <c r="G14" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="35" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2302,7 +2299,7 @@
       <c r="G15" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="35" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2328,7 +2325,7 @@
       <c r="G16" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="36" t="s">
+      <c r="H16" s="35" t="s">
         <v>92</v>
       </c>
     </row>

--- a/TEST_CASES_TRANSFERMATE.xlsx
+++ b/TEST_CASES_TRANSFERMATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula_Girdea\IdeaProjects\Newwwwwwwwwwww\Transfermate_Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745B81F9-63FE-4C1D-9717-A1EA70ADF8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79B1384-CE89-4F69-8164-A605276B276E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{548B10B5-A2EA-4F3D-9FB2-9432C4A61112}"/>
   </bookViews>
@@ -1446,7 +1446,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1477,6 +1477,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1490,16 +1502,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1523,15 +1532,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1543,24 +1543,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1590,6 +1572,44 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1906,46 +1926,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BCBA66-F58A-4F81-9C40-C9A1AE19ABAF}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E17" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="34.08984375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="40.36328125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="39.453125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="20.54296875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="34.08984375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="40.36328125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="39.453125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="20.54296875" style="12" customWidth="1"/>
     <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="21" t="s">
         <v>77</v>
       </c>
       <c r="I1" s="2"/>
@@ -1958,515 +1978,521 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:17" s="8" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="10" customFormat="1" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:17" s="9" customFormat="1" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="62" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="62" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="31" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="10" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:17" s="9" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="23" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="139.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="124" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="294.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="25" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="218.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="16"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="25" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="294.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="25" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="218.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="25" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="25" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="25" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="263.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="27" customFormat="1" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="26" t="s">
+    <row r="19" spans="1:8" s="17" customFormat="1" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="28" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="28" t="s">
+      <c r="A21" s="40"/>
+      <c r="B21" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="H21" s="23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="28" t="s">
+      <c r="A22" s="40"/>
+      <c r="B22" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="93" x14ac:dyDescent="0.35">
-      <c r="B23" s="28" t="s">
+      <c r="A23" s="40"/>
+      <c r="B23" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="22" t="s">
         <v>76</v>
       </c>
     </row>
